--- a/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T20:06:08+00:00</t>
+    <t>2022-03-22T19:58:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -460,11 +460,11 @@
     <t>Vaccine brand</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCVaccineBrand}
+    <t xml:space="preserve">Extension {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCEventBrand}
 </t>
   </si>
   <si>
-    <t>DDCC Vaccine Brand for Immunization</t>
+    <t>DDCC Event Brand for Immunization</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -490,11 +490,11 @@
     <t>Country of vaccination</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCCountryOfVaccination}
+    <t xml:space="preserve">Extension {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCCountryOfEvent}
 </t>
   </si>
   <si>
-    <t>DDCC Country Of Vaccination for Immunization</t>
+    <t>DDCC Country Of Event for Immunization</t>
   </si>
   <si>
     <t>validFrom</t>

--- a/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T19:58:30+00:00</t>
+    <t>2022-03-22T20:04:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:04:56+00:00</t>
+    <t>2022-03-22T20:08:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:08:10+00:00</t>
+    <t>2022-03-22T21:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T21:10:15+00:00</t>
+    <t>2022-03-23T17:44:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T17:44:48+00:00</t>
+    <t>2022-03-23T20:45:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:45:19+00:00</t>
+    <t>2022-03-23T20:58:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
